--- a/TradingBook (Autosaved).xlsx
+++ b/TradingBook (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LEARNINGS" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Instrument Selection'!$A$1:$L$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">trade!$A$1:$W$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">trade!$A$1:$W$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="293">
   <si>
     <t>Adani Power</t>
   </si>
@@ -1075,6 +1075,87 @@
   </si>
   <si>
     <t>119553,</t>
+  </si>
+  <si>
+    <t>177665,</t>
+  </si>
+  <si>
+    <t>341249,</t>
+  </si>
+  <si>
+    <t>356865,</t>
+  </si>
+  <si>
+    <t>486657,</t>
+  </si>
+  <si>
+    <t>784129,</t>
+  </si>
+  <si>
+    <t>1270529,</t>
+  </si>
+  <si>
+    <t>2478849,</t>
+  </si>
+  <si>
+    <t>2863105,</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTBank</t>
+  </si>
+  <si>
+    <t>HDFCBank</t>
+  </si>
+  <si>
+    <t>ICICIBank</t>
+  </si>
+  <si>
+    <t>CumminsInd</t>
+  </si>
+  <si>
+    <t>30-11: inspite follownig rule bought at peakk of day</t>
+  </si>
+  <si>
+    <t>KEIINd</t>
+  </si>
+  <si>
+    <t>408065,</t>
+  </si>
+  <si>
+    <t>681985,</t>
+  </si>
+  <si>
+    <t>873217,</t>
+  </si>
+  <si>
+    <t>969473,</t>
+  </si>
+  <si>
+    <t>1152769,</t>
+  </si>
+  <si>
+    <t>1629185,</t>
+  </si>
+  <si>
+    <t>2911489,</t>
+  </si>
+  <si>
+    <t>2953217,</t>
+  </si>
+  <si>
+    <t>3465729,</t>
+  </si>
+  <si>
+    <t>5181953,</t>
+  </si>
+  <si>
+    <t>Biocon</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1366,6 +1447,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18112,8 +18195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
@@ -19620,11 +19703,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19639,7 +19722,7 @@
     <col min="9" max="11" width="9.140625" style="6"/>
     <col min="12" max="12" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="6" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="6" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="6"/>
@@ -19762,7 +19845,7 @@
       </c>
       <c r="S2" s="60">
         <f t="shared" ref="S2:S17" ca="1" si="3">TODAY()</f>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17" t="s">
@@ -19833,7 +19916,7 @@
       </c>
       <c r="S3" s="60">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
@@ -19895,7 +19978,7 @@
       </c>
       <c r="S4" s="60">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
@@ -19956,7 +20039,7 @@
       </c>
       <c r="S5" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
@@ -20013,7 +20096,7 @@
       </c>
       <c r="S6" s="64">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -20074,7 +20157,7 @@
       </c>
       <c r="S7" s="64">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
@@ -20133,7 +20216,7 @@
       <c r="R8" s="17"/>
       <c r="S8" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
@@ -20194,7 +20277,7 @@
       </c>
       <c r="S9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
@@ -20255,7 +20338,7 @@
       </c>
       <c r="S10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
@@ -20316,7 +20399,7 @@
       </c>
       <c r="S11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
@@ -20371,7 +20454,7 @@
       <c r="R12" s="17"/>
       <c r="S12" s="64">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
@@ -20428,14 +20511,14 @@
         <v>45982</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="R13" s="46" t="s">
         <v>208</v>
       </c>
       <c r="S13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
@@ -20494,7 +20577,7 @@
       </c>
       <c r="S14" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
@@ -20549,12 +20632,12 @@
       <c r="R15" s="17"/>
       <c r="S15" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
     </row>
-    <row r="16" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -20608,7 +20691,7 @@
       </c>
       <c r="S16" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
@@ -20665,7 +20748,7 @@
       </c>
       <c r="S17" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -20854,7 +20937,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="58" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="58" customFormat="1" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -20906,7 +20989,7 @@
       </c>
       <c r="S21" s="36">
         <f ca="1">TODAY()</f>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T21" s="20">
         <f>IF(Q21="closed",P21-B21,S21-B21)</f>
@@ -20925,7 +21008,7 @@
         <v>-2.0389520547945201</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -20979,7 +21062,7 @@
       </c>
       <c r="S22" s="36">
         <f t="shared" ref="S22:S41" ca="1" si="8">TODAY()</f>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T22" s="20">
         <f t="shared" ref="T22:T41" si="9">IF(Q22="closed",P22-B22,S22-B22)</f>
@@ -20998,7 +21081,7 @@
         <v>-2.8693150684931505</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="59" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="59" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -21050,7 +21133,7 @@
       </c>
       <c r="S23" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T23" s="20">
         <f t="shared" si="9"/>
@@ -21069,7 +21152,7 @@
         <v>-6.7058630136986297</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="52" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -21119,7 +21202,7 @@
       <c r="R24" s="17"/>
       <c r="S24" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T24" s="20">
         <f t="shared" si="9"/>
@@ -21185,7 +21268,7 @@
       <c r="R25" s="17"/>
       <c r="S25" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T25" s="20">
         <f t="shared" si="9"/>
@@ -21204,7 +21287,7 @@
         <v>-33818.806575342467</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -21256,7 +21339,7 @@
       </c>
       <c r="S26" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T26" s="20">
         <f t="shared" si="9"/>
@@ -21275,7 +21358,7 @@
         <v>-1.3404109589041098</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="59" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -21325,7 +21408,7 @@
       <c r="R27" s="17"/>
       <c r="S27" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T27" s="20">
         <f t="shared" si="9"/>
@@ -21360,7 +21443,7 @@
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17">
-        <v>406.1</v>
+        <v>403.05</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17">
@@ -21375,11 +21458,11 @@
       </c>
       <c r="L28" s="20">
         <f t="shared" si="7"/>
-        <v>-7.1999999999995907</v>
+        <v>-43.799999999999727</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="2"/>
-        <v>-0.14752889107449371</v>
+        <v>-0.8974674207032155</v>
       </c>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -21392,11 +21475,11 @@
       </c>
       <c r="S28" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T28" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="U28" s="20">
         <f t="shared" si="5"/>
@@ -21408,7 +21491,7 @@
       </c>
       <c r="W28" s="58">
         <f t="shared" ca="1" si="10"/>
-        <v>-10.028219178082191</v>
+        <v>-16.045150684931503</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21458,7 +21541,7 @@
       <c r="R29" s="17"/>
       <c r="S29" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T29" s="20">
         <f t="shared" si="9"/>
@@ -21477,7 +21560,7 @@
         <v>-31122.414246575347</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -21529,7 +21612,7 @@
       </c>
       <c r="S30" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T30" s="20">
         <f t="shared" si="9"/>
@@ -21597,7 +21680,7 @@
       </c>
       <c r="S31" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T31" s="20">
         <f t="shared" si="9"/>
@@ -21667,7 +21750,7 @@
       </c>
       <c r="S32" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T32" s="20">
         <f t="shared" si="9"/>
@@ -21686,7 +21769,7 @@
         <v>-43577.677479452061</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="52" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -21738,7 +21821,7 @@
       </c>
       <c r="S33" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T33" s="20">
         <f t="shared" si="9"/>
@@ -21807,7 +21890,7 @@
       </c>
       <c r="S34" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T34" s="20">
         <f t="shared" si="9"/>
@@ -21826,7 +21909,7 @@
         <v>-31572.373068493151</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -21873,7 +21956,7 @@
       <c r="R35" s="17"/>
       <c r="S35" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T35" s="20">
         <f t="shared" si="9"/>
@@ -21908,7 +21991,7 @@
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17">
-        <v>367.15</v>
+        <v>352.05</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17">
@@ -21923,11 +22006,11 @@
       </c>
       <c r="L36" s="17">
         <f t="shared" ref="L36:L37" si="18">(G36-I36)*J36</f>
-        <v>-135.60000000000014</v>
+        <v>-316.79999999999973</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" ref="M36:M38" si="19">L36*100/(I36*J36)</f>
-        <v>-2.9858633901440119</v>
+        <v>-6.9758224336107748</v>
       </c>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
@@ -21940,11 +22023,11 @@
       </c>
       <c r="S36" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T36" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="U36" s="20">
         <f t="shared" si="5"/>
@@ -21956,7 +22039,7 @@
       </c>
       <c r="W36" s="58">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.5989863013698624</v>
+        <v>-11.197972602739725</v>
       </c>
     </row>
     <row r="37" spans="1:23" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21975,7 +22058,7 @@
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17">
-        <v>7395</v>
+        <v>7201</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17">
@@ -21990,11 +22073,11 @@
       </c>
       <c r="L37" s="17">
         <f t="shared" si="18"/>
-        <v>-55</v>
+        <v>-249</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="19"/>
-        <v>-0.73825503355704702</v>
+        <v>-3.3422818791946307</v>
       </c>
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
@@ -22007,11 +22090,11 @@
       </c>
       <c r="S37" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T37" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="U37" s="20">
         <f t="shared" si="5"/>
@@ -22023,7 +22106,7 @@
       </c>
       <c r="W37" s="58">
         <f t="shared" ca="1" si="10"/>
-        <v>-9.1849315068493151</v>
+        <v>-18.36986301369863</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -22073,7 +22156,7 @@
       <c r="R38" s="17"/>
       <c r="S38" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T38" s="20">
         <f t="shared" si="9"/>
@@ -22092,7 +22175,7 @@
         <v>-27712.164383561645</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="52" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -22122,11 +22205,11 @@
         <v>4617</v>
       </c>
       <c r="L39" s="20">
-        <f>IF(Q39="open",(G39-I39)*J39,(O39-I39)*J39)</f>
+        <f t="shared" ref="L39:L50" si="22">IF(Q39="open",(G39-I39)*J39,(O39-I39)*J39)</f>
         <v>-76.999999999999886</v>
       </c>
       <c r="M39" s="17">
-        <f t="shared" ref="M39:M41" si="22">L39*100/(I39*J39)</f>
+        <f t="shared" ref="M39:M50" si="23">L39*100/(I39*J39)</f>
         <v>-1.6677496209659928</v>
       </c>
       <c r="N39" s="17"/>
@@ -22142,7 +22225,7 @@
       <c r="R39" s="17"/>
       <c r="S39" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T39" s="20">
         <f t="shared" si="9"/>
@@ -22189,12 +22272,12 @@
         <f>I40*J40</f>
         <v>6500.5</v>
       </c>
-      <c r="L40" s="17">
-        <f t="shared" ref="L40" si="23">(G40-I40)*J40</f>
+      <c r="L40" s="20">
+        <f t="shared" si="22"/>
         <v>34.5</v>
       </c>
       <c r="M40" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.53072840550726863</v>
       </c>
       <c r="N40" s="17"/>
@@ -22208,7 +22291,7 @@
       <c r="R40" s="17"/>
       <c r="S40" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T40" s="20">
         <f t="shared" si="9"/>
@@ -22256,11 +22339,11 @@
         <v>5439.2</v>
       </c>
       <c r="L41" s="20">
-        <f t="shared" ref="L41" si="25">IF(Q41="open",(G41-I41)*J41,(O41-I41)*J41)</f>
+        <f t="shared" si="22"/>
         <v>61.600000000000364</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.1325194881600302</v>
       </c>
       <c r="N41" s="17"/>
@@ -22276,7 +22359,7 @@
       <c r="R41" s="17"/>
       <c r="S41" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>45986</v>
+        <v>45995</v>
       </c>
       <c r="T41" s="20">
         <f t="shared" si="9"/>
@@ -22320,15 +22403,15 @@
         <v>10</v>
       </c>
       <c r="K42" s="17">
-        <f t="shared" ref="K42:K46" si="26">I42*J42</f>
+        <f t="shared" ref="K42:K53" si="25">I42*J42</f>
         <v>4617</v>
       </c>
       <c r="L42" s="20">
-        <f>IF(Q42="open",(G42-I42)*J42,(O42-I42)*J42)</f>
+        <f t="shared" si="22"/>
         <v>-76.999999999999886</v>
       </c>
       <c r="M42" s="17">
-        <f t="shared" ref="M42:M43" si="27">L42*100/(I42*J42)</f>
+        <f t="shared" si="23"/>
         <v>-1.6677496209659928</v>
       </c>
       <c r="N42" s="17"/>
@@ -22382,15 +22465,15 @@
         <v>23</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4811.37</v>
       </c>
-      <c r="L43" s="17">
-        <f t="shared" ref="L43" si="28">(G43-I43)*J43</f>
+      <c r="L43" s="20">
+        <f t="shared" si="22"/>
         <v>51.520000000000209</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>1.0707968832162194</v>
       </c>
       <c r="N43" s="17"/>
@@ -22434,7 +22517,7 @@
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17">
-        <v>132.78</v>
+        <v>132.15</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17">
@@ -22444,16 +22527,16 @@
         <v>36</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5000.4000000000005</v>
       </c>
-      <c r="L44" s="17">
-        <f t="shared" ref="L44" si="29">(G44-I44)*J44</f>
-        <v>-220.32000000000016</v>
+      <c r="L44" s="20">
+        <f t="shared" si="22"/>
+        <v>-243</v>
       </c>
       <c r="M44" s="17">
-        <f t="shared" ref="M44" si="30">L44*100/(I44*J44)</f>
-        <v>-4.4060475161987069</v>
+        <f t="shared" si="23"/>
+        <v>-4.8596112311015114</v>
       </c>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
@@ -22494,7 +22577,7 @@
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17">
-        <v>1487.5</v>
+        <v>1528.65</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17">
@@ -22504,16 +22587,16 @@
         <v>3</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4699.7999999999993</v>
       </c>
-      <c r="L45" s="17">
-        <f t="shared" ref="L45" si="31">(G45-I45)*J45</f>
-        <v>-237.29999999999973</v>
+      <c r="L45" s="20">
+        <f t="shared" si="22"/>
+        <v>-113.84999999999945</v>
       </c>
       <c r="M45" s="17">
-        <f t="shared" ref="M45" si="32">L45*100/(I45*J45)</f>
-        <v>-5.0491510277033012</v>
+        <f t="shared" si="23"/>
+        <v>-2.4224435082343816</v>
       </c>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
@@ -22553,7 +22636,7 @@
         <v>21</v>
       </c>
       <c r="G46" s="6">
-        <v>143.94</v>
+        <v>136.75</v>
       </c>
       <c r="I46" s="6">
         <v>146.80000000000001</v>
@@ -22562,16 +22645,16 @@
         <v>33</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4844.4000000000005</v>
       </c>
-      <c r="L46" s="17">
-        <f t="shared" ref="L46" si="33">(G46-I46)*J46</f>
-        <v>-94.38000000000045</v>
+      <c r="L46" s="20">
+        <f t="shared" si="22"/>
+        <v>-331.65000000000038</v>
       </c>
       <c r="M46" s="17">
-        <f t="shared" ref="M46" si="34">L46*100/(I46*J46)</f>
-        <v>-1.9482288828337966</v>
+        <f t="shared" si="23"/>
+        <v>-6.8460490463215322</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>25</v>
@@ -22589,24 +22672,563 @@
         <v>-0.66361643835616457</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:23" s="16" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>46</v>
+      </c>
+      <c r="B47" s="36">
+        <v>45989</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1516.6</v>
+      </c>
+      <c r="G47" s="16">
+        <v>1527.7</v>
+      </c>
+      <c r="I47" s="16">
+        <v>1523.4</v>
+      </c>
+      <c r="J47" s="16">
+        <v>3</v>
+      </c>
+      <c r="K47" s="16">
+        <f t="shared" si="25"/>
+        <v>4570.2000000000007</v>
+      </c>
+      <c r="L47" s="20">
+        <f t="shared" si="22"/>
+        <v>-70.200000000000273</v>
+      </c>
+      <c r="M47" s="20">
+        <f t="shared" si="23"/>
+        <v>-1.5360378101614867</v>
+      </c>
+      <c r="N47" s="16">
+        <f>IF(G47&gt;I47,J$63*G47,J$63*I47)</f>
+        <v>1489.5074999999999</v>
+      </c>
+      <c r="O47" s="16">
+        <v>1500</v>
+      </c>
+      <c r="P47" s="69">
+        <v>45994</v>
+      </c>
+      <c r="Q47" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>47</v>
+      </c>
+      <c r="B48" s="38">
+        <v>45989</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="6">
+        <v>4030.5</v>
+      </c>
+      <c r="G48" s="6">
+        <v>3983.6</v>
+      </c>
+      <c r="I48" s="6">
+        <v>4094.9</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" si="25"/>
+        <v>4094.9</v>
+      </c>
+      <c r="L48" s="20">
+        <f t="shared" si="22"/>
+        <v>-111.30000000000018</v>
+      </c>
+      <c r="M48" s="17">
+        <f t="shared" si="23"/>
+        <v>-2.7180150919436414</v>
+      </c>
+      <c r="N48" s="16">
+        <f>IF(G48&gt;I48,J$63*G48,J$63*I48)</f>
+        <v>3992.5275000000001</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="38">
+        <v>45989</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="6">
+        <v>81.98</v>
+      </c>
+      <c r="G49" s="6">
+        <v>82.05</v>
+      </c>
+      <c r="I49" s="6">
+        <v>80.14</v>
+      </c>
+      <c r="J49" s="6">
+        <v>60</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="25"/>
+        <v>4808.3999999999996</v>
+      </c>
+      <c r="L49" s="20">
+        <f t="shared" si="22"/>
+        <v>-9.0000000000003411</v>
+      </c>
+      <c r="M49" s="17">
+        <f t="shared" si="23"/>
+        <v>-0.18717244821562976</v>
+      </c>
+      <c r="N49" s="16">
+        <f>IF(G49&gt;I49,J$63*G49,J$63*I49)</f>
+        <v>79.998750000000001</v>
+      </c>
+      <c r="O49" s="6">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="P49" s="68">
+        <v>45994</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="38">
+        <v>45989</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="6">
+        <v>989.8</v>
+      </c>
+      <c r="G50" s="6">
+        <v>997.2</v>
+      </c>
+      <c r="I50" s="6">
+        <v>1010.85</v>
+      </c>
+      <c r="J50" s="6">
+        <v>5</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" si="25"/>
+        <v>5054.25</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" si="22"/>
+        <v>-68.249999999999886</v>
+      </c>
+      <c r="M50" s="17">
+        <f t="shared" si="23"/>
+        <v>-1.3503487164267673</v>
+      </c>
+      <c r="N50" s="16">
+        <f>IF(G50&gt;I50,J$63*G50,J$63*I50)</f>
+        <v>985.57875000000001</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>50</v>
+      </c>
+      <c r="B51" s="38">
+        <v>45989</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1352.4</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1353.8</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1370.35</v>
+      </c>
+      <c r="J51" s="6">
+        <v>3</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="25"/>
+        <v>4111.0499999999993</v>
+      </c>
+      <c r="L51" s="20">
+        <f t="shared" ref="L51:L55" si="26">IF(Q51="open",(G51-I51)*J51,(O51-I51)*J51)</f>
+        <v>-49.649999999999864</v>
+      </c>
+      <c r="M51" s="17">
+        <f t="shared" ref="M51:M55" si="27">L51*100/(I51*J51)</f>
+        <v>-1.2077206553070352</v>
+      </c>
+      <c r="N51" s="16">
+        <f>IF(G51&gt;I51,J$63*G51,J$63*I51)</f>
+        <v>1336.0912499999999</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="38">
+        <v>45989</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1373.9</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1386.7</v>
+      </c>
+      <c r="I52" s="6">
+        <v>1389.2</v>
+      </c>
+      <c r="J52" s="6">
+        <v>4</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="25"/>
+        <v>5556.8</v>
+      </c>
+      <c r="L52" s="20">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="M52" s="17">
+        <f t="shared" si="27"/>
+        <v>-0.17995968902965734</v>
+      </c>
+      <c r="N52" s="16">
+        <f>IF(G52&gt;I52,J$63*G52,J$63*I52)</f>
+        <v>1354.47</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="38">
+        <v>45989</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="6">
+        <v>4518</v>
+      </c>
+      <c r="G53" s="6">
+        <v>4570</v>
+      </c>
+      <c r="I53" s="6">
+        <v>4478.7</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="25"/>
+        <v>4478.7</v>
+      </c>
+      <c r="L53" s="20">
+        <f t="shared" si="26"/>
+        <v>-23.699999999999818</v>
+      </c>
+      <c r="M53" s="17">
+        <f t="shared" si="27"/>
+        <v>-0.5291714113470386</v>
+      </c>
+      <c r="N53" s="16">
+        <f>IF(G53&gt;I53,J$63*G53,J$63*I53)</f>
+        <v>4455.75</v>
+      </c>
+      <c r="O53" s="6">
+        <v>4455</v>
+      </c>
+      <c r="P53" s="68">
+        <v>45994</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="68">
+        <v>45994</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I54" s="16">
+        <v>1523.4</v>
+      </c>
+      <c r="J54" s="16">
+        <v>3</v>
+      </c>
+      <c r="K54" s="16">
+        <f t="shared" ref="K54:K57" si="28">I54*J54</f>
+        <v>4570.2000000000007</v>
+      </c>
+      <c r="L54" s="20">
+        <f t="shared" si="26"/>
+        <v>-4570.2000000000007</v>
+      </c>
+      <c r="M54" s="20">
+        <f t="shared" si="27"/>
+        <v>-100</v>
+      </c>
+      <c r="N54" s="16">
+        <f>IF(G54&gt;I54,J$63*G54,J$63*I54)</f>
+        <v>1485.3150000000001</v>
+      </c>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="68">
+        <v>45994</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="6">
+        <v>81.98</v>
+      </c>
+      <c r="G55" s="6">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="I55" s="6">
+        <v>80.14</v>
+      </c>
+      <c r="J55" s="6">
+        <v>60</v>
+      </c>
+      <c r="K55" s="6">
+        <f t="shared" si="28"/>
+        <v>4808.3999999999996</v>
+      </c>
+      <c r="L55" s="20">
+        <f t="shared" si="26"/>
+        <v>-4808.3999999999996</v>
+      </c>
+      <c r="M55" s="17">
+        <f t="shared" si="27"/>
+        <v>-100</v>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="Q55" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="68">
+        <v>45994</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="6">
+        <v>4455</v>
+      </c>
+      <c r="G56" s="6">
+        <v>4455</v>
+      </c>
+      <c r="I56" s="6">
+        <v>4478.7</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="28"/>
+        <v>4478.7</v>
+      </c>
+      <c r="L56" s="20">
+        <f t="shared" ref="L56:L57" si="29">IF(Q56="open",(G56-I56)*J56,(O56-I56)*J56)</f>
+        <v>-4478.7</v>
+      </c>
+      <c r="M56" s="17">
+        <f t="shared" ref="M56:M57" si="30">L56*100/(I56*J56)</f>
+        <v>-100</v>
+      </c>
+      <c r="N56" s="16">
+        <f>IF(G56&gt;I56,J$63*G56,J$63*I56)</f>
+        <v>4366.7325000000001</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>52</v>
+      </c>
+      <c r="B57" s="68">
+        <v>45995</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="6">
+        <v>389.05</v>
+      </c>
+      <c r="I57" s="6">
+        <v>389.05</v>
+      </c>
+      <c r="J57" s="6">
+        <v>25</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" si="28"/>
+        <v>9726.25</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <f>IF(G57&gt;I57,J$63*G57,J$63*I57)</f>
+        <v>379.32375000000002</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I63" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J63" s="6">
+        <f>1-I63</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K63" s="6">
+        <f>J63*4094.9</f>
+        <v>3992.5275000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D64" s="17">
+        <v>3407361</v>
+      </c>
+      <c r="I64" s="6">
+        <f>1-J64</f>
+        <v>1.4120480169299787E-2</v>
+      </c>
+      <c r="J64" s="6">
+        <f>K64/I51</f>
+        <v>0.98587951983070021</v>
+      </c>
+      <c r="K64" s="6">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="6">
+        <v>225537</v>
+      </c>
+    </row>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="6">
+        <v>1850625</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W47">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:W56">
+    <filterColumn colId="16">
       <filters>
-        <dateGroupItem year="2025" month="11" day="10" dateTimeGrouping="day"/>
-        <dateGroupItem year="2025" month="11" day="11" dateTimeGrouping="day"/>
-        <dateGroupItem year="2025" month="11" day="12" dateTimeGrouping="day"/>
-        <dateGroupItem year="2025" month="11" day="14" dateTimeGrouping="day"/>
-        <dateGroupItem year="2025" month="11" day="17" dateTimeGrouping="day"/>
-        <dateGroupItem year="2025" month="11" day="18" dateTimeGrouping="day"/>
-        <dateGroupItem year="2025" month="11" day="19" dateTimeGrouping="day"/>
-        <dateGroupItem year="2025" month="11" day="20" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="buy"/>
+        <filter val="open"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -22619,8 +23241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:U39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23016,6 +23638,39 @@
         <f t="shared" si="0"/>
         <v>,</v>
       </c>
+      <c r="H21" t="s">
+        <v>282</v>
+      </c>
+      <c r="I21" t="s">
+        <v>283</v>
+      </c>
+      <c r="J21" t="s">
+        <v>284</v>
+      </c>
+      <c r="K21" t="s">
+        <v>285</v>
+      </c>
+      <c r="L21" t="s">
+        <v>286</v>
+      </c>
+      <c r="M21" t="s">
+        <v>287</v>
+      </c>
+      <c r="N21" t="s">
+        <v>288</v>
+      </c>
+      <c r="O21" t="s">
+        <v>289</v>
+      </c>
+      <c r="P21" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>291</v>
+      </c>
+      <c r="R21" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -23054,15 +23709,15 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="20">
-        <v>3660545</v>
+      <c r="B25">
+        <v>408065</v>
       </c>
       <c r="C25" t="s">
         <v>108</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ref="D25:D43" si="1">CONCATENATE(B25,C25)</f>
-        <v>3660545,</v>
+        <v>408065,</v>
       </c>
       <c r="H25" t="s">
         <v>122</v>
@@ -23093,27 +23748,27 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="41">
-        <v>40193</v>
+      <c r="B26">
+        <v>681985</v>
       </c>
       <c r="C26" t="s">
         <v>108</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
-        <v>40193,</v>
+        <v>681985,</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
-        <v>424961</v>
+      <c r="B27">
+        <v>873217</v>
       </c>
       <c r="C27" t="s">
         <v>108</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
-        <v>424961,</v>
+        <v>873217,</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ref="H27:H39" si="2">CONCATENATE(F27,G27)</f>
@@ -23121,15 +23776,15 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <v>548865</v>
+      <c r="B28">
+        <v>969473</v>
       </c>
       <c r="C28" t="s">
         <v>108</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
-        <v>548865,</v>
+        <v>969473,</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
@@ -23138,14 +23793,14 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>1086465</v>
+        <v>1152769</v>
       </c>
       <c r="C29" t="s">
         <v>108</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
-        <v>1086465,</v>
+        <v>1152769,</v>
       </c>
       <c r="H29" t="s">
         <v>125</v>
@@ -23189,14 +23844,14 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>5186817</v>
+        <v>1629185</v>
       </c>
       <c r="C30" t="s">
         <v>108</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
-        <v>5186817,</v>
+        <v>1629185,</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
@@ -23205,14 +23860,14 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>758529</v>
+        <v>2911489</v>
       </c>
       <c r="C31" t="s">
         <v>108</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
-        <v>758529,</v>
+        <v>2911489,</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="2"/>
@@ -23221,14 +23876,14 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>134657</v>
+        <v>2953217</v>
       </c>
       <c r="C32" t="s">
         <v>108</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
-        <v>134657,</v>
+        <v>2953217,</v>
       </c>
       <c r="H32" t="s">
         <v>110</v>
@@ -23281,14 +23936,14 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>364545</v>
+        <v>3465729</v>
       </c>
       <c r="C33" t="s">
         <v>108</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
-        <v>364545,</v>
+        <v>3465729,</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="2"/>
@@ -23297,14 +23952,14 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>415745</v>
+        <v>5181953</v>
       </c>
       <c r="C34" t="s">
         <v>108</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
-        <v>415745,</v>
+        <v>5181953,</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="2"/>
@@ -23313,14 +23968,14 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>2995969</v>
+        <v>6599681</v>
       </c>
       <c r="C35" t="s">
         <v>108</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
-        <v>2995969,</v>
+        <v>6599681,</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="2"/>
@@ -23328,15 +23983,12 @@
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>4359425</v>
-      </c>
       <c r="C36" t="s">
         <v>108</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
-        <v>4359425,</v>
+        <v>,</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
@@ -23344,15 +23996,12 @@
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>119553</v>
-      </c>
       <c r="C37" t="s">
         <v>108</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
-        <v>119553,</v>
+        <v>,</v>
       </c>
       <c r="H37" t="s">
         <v>230</v>
@@ -23528,6 +24177,45 @@
       <c r="D43" t="str">
         <f t="shared" si="1"/>
         <v>,</v>
+      </c>
+      <c r="I43" t="s">
+        <v>266</v>
+      </c>
+      <c r="J43" t="s">
+        <v>267</v>
+      </c>
+      <c r="K43" t="s">
+        <v>121</v>
+      </c>
+      <c r="L43" t="s">
+        <v>268</v>
+      </c>
+      <c r="M43" t="s">
+        <v>252</v>
+      </c>
+      <c r="N43" t="s">
+        <v>269</v>
+      </c>
+      <c r="O43" t="s">
+        <v>270</v>
+      </c>
+      <c r="P43" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>271</v>
+      </c>
+      <c r="R43" t="s">
+        <v>272</v>
+      </c>
+      <c r="S43" t="s">
+        <v>273</v>
+      </c>
+      <c r="T43" t="s">
+        <v>122</v>
+      </c>
+      <c r="U43" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
